--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3996610.569450533</v>
+        <v>3994066.75994345</v>
       </c>
     </row>
     <row r="7">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>174.0863967382248</v>
+        <v>21.31870353900247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -716,13 +716,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>45.8683512119801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.88728542948187</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>16.39467431752542</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>120.0246850005849</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>7.155295256393265</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015062</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>232.2791855053266</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>44.275769740903</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>68.71732409076216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>27.97091099520353</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>250.6790635685636</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203004</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>186.9626473935684</v>
+        <v>57.36499096457435</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.8686312908695</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115232</v>
+        <v>20.2497997611524</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099067</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.34571932180253</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>120.3787038611853</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471651</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2615,13 +2615,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174119</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560543</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722612</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
-        <v>250.905700988128</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>41.01175877060102</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,13 +3958,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576149</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>320.3587892151036</v>
+        <v>166.047988003768</v>
       </c>
       <c r="C2" t="n">
-        <v>320.3587892151036</v>
+        <v>166.047988003768</v>
       </c>
       <c r="D2" t="n">
-        <v>320.3587892151036</v>
+        <v>166.047988003768</v>
       </c>
       <c r="E2" t="n">
-        <v>320.3587892151036</v>
+        <v>166.047988003768</v>
       </c>
       <c r="F2" t="n">
-        <v>313.4132884659002</v>
+        <v>159.1024872545645</v>
       </c>
       <c r="G2" t="n">
         <v>137.5684432757741</v>
@@ -4328,22 +4328,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917584</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411528</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>586.7364457822816</v>
+        <v>432.425644570946</v>
       </c>
       <c r="V2" t="n">
-        <v>586.7364457822816</v>
+        <v>166.047988003768</v>
       </c>
       <c r="W2" t="n">
-        <v>586.7364457822816</v>
+        <v>166.047988003768</v>
       </c>
       <c r="X2" t="n">
-        <v>320.3587892151036</v>
+        <v>166.047988003768</v>
       </c>
       <c r="Y2" t="n">
-        <v>320.3587892151036</v>
+        <v>166.047988003768</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>651.488074754214</v>
+        <v>167.9129401811203</v>
       </c>
       <c r="C3" t="n">
-        <v>477.0350454730871</v>
+        <v>167.9129401811203</v>
       </c>
       <c r="D3" t="n">
-        <v>328.1006358118358</v>
+        <v>167.9129401811203</v>
       </c>
       <c r="E3" t="n">
-        <v>168.8631808063803</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F3" t="n">
-        <v>168.8631808063803</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4410,22 +4410,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>141.1068094710483</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>287.851233131345</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>478.4519222278689</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4437,22 +4437,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742821</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="W3" t="n">
-        <v>819.7034117742821</v>
+        <v>375.6732389460743</v>
       </c>
       <c r="X3" t="n">
-        <v>819.7034117742821</v>
+        <v>375.6732389460743</v>
       </c>
       <c r="Y3" t="n">
-        <v>819.7034117742821</v>
+        <v>167.9129401811203</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>484.8363344083309</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C4" t="n">
-        <v>315.900151480424</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D4" t="n">
-        <v>315.900151480424</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
         <v>21.0971104001205</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>684.0336785103125</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>684.0336785103125</v>
       </c>
       <c r="W4" t="n">
-        <v>933.6184644498784</v>
+        <v>417.6560219431344</v>
       </c>
       <c r="X4" t="n">
-        <v>705.628913551861</v>
+        <v>189.666471045117</v>
       </c>
       <c r="Y4" t="n">
-        <v>484.8363344083309</v>
+        <v>189.666471045117</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>820.2300801016545</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="C5" t="n">
-        <v>820.2300801016545</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="D5" t="n">
-        <v>820.2300801016545</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="E5" t="n">
-        <v>553.8524235344764</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672985</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="W5" t="n">
-        <v>820.2300801016545</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="X5" t="n">
-        <v>820.2300801016545</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="Y5" t="n">
-        <v>820.2300801016545</v>
+        <v>574.0438072739746</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902313</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4671,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166546</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166546</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>887.8833378166546</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V6" t="n">
-        <v>887.8833378166546</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="W6" t="n">
-        <v>887.8833378166546</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="X6" t="n">
-        <v>887.8833378166546</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>418.2154137466196</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>171.2137498124562</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C7" t="n">
-        <v>171.2137498124562</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0971104001205</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0971104001205</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="W7" t="n">
-        <v>801.6443446842434</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="X7" t="n">
-        <v>573.654793786226</v>
+        <v>217.9199164948176</v>
       </c>
       <c r="Y7" t="n">
-        <v>352.8622146426959</v>
+        <v>217.9199164948176</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1486.913258453536</v>
+        <v>1136.202892955284</v>
       </c>
       <c r="C8" t="n">
-        <v>1117.950741513125</v>
+        <v>1136.202892955284</v>
       </c>
       <c r="D8" t="n">
-        <v>759.6850429063741</v>
+        <v>777.9371943485338</v>
       </c>
       <c r="E8" t="n">
-        <v>373.8967903081298</v>
+        <v>777.9371943485338</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9512895589264</v>
+        <v>770.9916935993303</v>
       </c>
       <c r="G8" t="n">
-        <v>355.2854715909976</v>
+        <v>355.2854715909975</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467168</v>
       </c>
       <c r="K8" t="n">
-        <v>442.175743760743</v>
+        <v>442.1757437607417</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045942</v>
+        <v>795.1862829045922</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995229</v>
+        <v>1219.647962995226</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209587</v>
+        <v>1655.591685209584</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940599</v>
+        <v>2053.905718940595</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550202</v>
+        <v>2359.356530550197</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661168</v>
+        <v>2540.564622661163</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.83001576214</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="T8" t="n">
-        <v>2246.978856778738</v>
+        <v>2502.61832502503</v>
       </c>
       <c r="U8" t="n">
-        <v>2246.978856778738</v>
+        <v>2249.0371465506</v>
       </c>
       <c r="V8" t="n">
-        <v>2246.978856778738</v>
+        <v>2249.0371465506</v>
       </c>
       <c r="W8" t="n">
-        <v>2246.978856778738</v>
+        <v>1896.268491280486</v>
       </c>
       <c r="X8" t="n">
-        <v>1873.513098517658</v>
+        <v>1522.802733019406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1873.513098517658</v>
+        <v>1522.802733019406</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010768</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199498</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818586986</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4875,58 +4875,58 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J9" t="n">
-        <v>113.488757963719</v>
+        <v>113.4887579637187</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148185</v>
+        <v>559.9063389572706</v>
       </c>
       <c r="L9" t="n">
-        <v>931.8250374996585</v>
+        <v>1116.272322425153</v>
       </c>
       <c r="M9" t="n">
-        <v>1294.89150597396</v>
+        <v>1479.338790899454</v>
       </c>
       <c r="N9" t="n">
-        <v>1681.97590844653</v>
+        <v>1866.423193372023</v>
       </c>
       <c r="O9" t="n">
-        <v>2013.86271843392</v>
+        <v>2198.310003359412</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888885</v>
+        <v>2445.345361789037</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.27262844263</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251703</v>
+        <v>2424.826280251697</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685352</v>
+        <v>2230.816477685346</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751576</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.574213519833</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791632</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586099</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821145</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686165</v>
+        <v>220.1474381347626</v>
       </c>
       <c r="C10" t="n">
-        <v>546.9851976407097</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="D10" t="n">
-        <v>396.8685582283739</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="E10" t="n">
-        <v>248.9554646459808</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0655171480704</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380168</v>
+        <v>76.63468308380142</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676571</v>
+        <v>248.2500215676566</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368925</v>
+        <v>523.3850043368917</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904043</v>
+        <v>823.8653899904032</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1533.156055412619</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477364</v>
+        <v>1336.515802634453</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477364</v>
+        <v>1113.534501108858</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477364</v>
+        <v>824.4161276035004</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477364</v>
+        <v>569.7316393976135</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.351975440404</v>
+        <v>569.7316393976135</v>
       </c>
       <c r="X10" t="n">
-        <v>1118.362424542386</v>
+        <v>341.7420884995962</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.5698453988563</v>
+        <v>220.1474381347626</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406468</v>
@@ -5033,7 +5033,7 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,7 +5042,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192673</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,10 +5303,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245714</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>776.17510664033</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266882</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,22 +5507,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5540,10 +5540,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745237</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6014,13 +6014,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1026.887310050511</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6127,31 +6127,31 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,28 +6245,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349509</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,19 +6725,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6926,7 +6926,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797186</v>
@@ -6935,28 +6935,28 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,10 +6968,10 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852888</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7214,7 +7214,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021782</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7385,73 +7385,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7625,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7667,28 +7667,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>45.78351343583191</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544051</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.6295957084427</v>
+        <v>264.4747475094963</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>161.7749020457984</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348513</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G19" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>99.28295407562287</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>615119.0532077017</v>
+        <v>615119.0532077018</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="H2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900058</v>
       </c>
       <c r="K2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="M2" t="n">
         <v>807146.5996900059</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="M2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>807146.5996900059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.599690006</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580799</v>
+        <v>390680.0076580786</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.232060692</v>
+        <v>507909.2320606936</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101791</v>
+        <v>95270.23779101759</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954687</v>
+        <v>132717.9756954692</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7.723256517081232e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555021</v>
+        <v>139261.6527555025</v>
       </c>
       <c r="E4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10557.08828678123</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10557.08828678122</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10557.08828678123</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10557.08828678129</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10557.08828678123</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10557.08828678127</v>
+      </c>
+      <c r="M4" t="n">
         <v>10557.08828678125</v>
       </c>
-      <c r="F4" t="n">
-        <v>10557.08828678121</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10557.08828678123</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10557.08828678121</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10557.08828678119</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10557.08828678117</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10557.08828678122</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10557.08828678121</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10557.08828678123</v>
-      </c>
       <c r="N4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678129</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567906</v>
+        <v>92902.86757567895</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26525,43 +26525,43 @@
         <v>507661.3006851549</v>
       </c>
       <c r="D6" t="n">
-        <v>198197.2418750222</v>
+        <v>198197.2418750234</v>
       </c>
       <c r="E6" t="n">
-        <v>187557.7495186256</v>
+        <v>187523.0115931883</v>
       </c>
       <c r="F6" t="n">
-        <v>695466.9815793178</v>
+        <v>695432.2436538823</v>
       </c>
       <c r="G6" t="n">
-        <v>695466.9815793172</v>
+        <v>695432.2436538819</v>
       </c>
       <c r="H6" t="n">
-        <v>695466.9815793177</v>
+        <v>695432.2436538821</v>
       </c>
       <c r="I6" t="n">
-        <v>695466.9815793177</v>
+        <v>695432.2436538821</v>
       </c>
       <c r="J6" t="n">
-        <v>626467.8271602034</v>
+        <v>626433.0892347676</v>
       </c>
       <c r="K6" t="n">
-        <v>695466.9815793176</v>
+        <v>695432.2436538822</v>
       </c>
       <c r="L6" t="n">
-        <v>600196.7437882998</v>
+        <v>600162.0058628647</v>
       </c>
       <c r="M6" t="n">
-        <v>562749.0058838491</v>
+        <v>562714.2679584128</v>
       </c>
       <c r="N6" t="n">
-        <v>695466.9815793176</v>
+        <v>695432.2436538823</v>
       </c>
       <c r="O6" t="n">
-        <v>695466.9815793179</v>
+        <v>695432.2436538819</v>
       </c>
       <c r="P6" t="n">
-        <v>695466.9815793177</v>
+        <v>695432.2436538818</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6.436047097567693e-14</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
+        <v>6.431426819679991e-14</v>
+      </c>
+      <c r="N2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.73773680526618e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627837</v>
+        <v>933.7024595627826</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856969</v>
+        <v>640.1406900856955</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.816349535241144e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.213403270896145e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933053</v>
+        <v>319.6474457933042</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788898</v>
+        <v>434.2730407788912</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841907</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841907</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139511</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.816349535241144e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841907</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>238.7477779074852</v>
+        <v>391.5154711067075</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>111.7767292434208</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>133.1354341569416</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,22 +27509,22 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>269.8639561851521</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>166.4983133360061</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>375.5785464070873</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442038</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776184</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27667,7 +27667,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>116.9617832120864</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>43.92180400150558</v>
@@ -27746,13 +27746,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>188.5248174085223</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>136.9653716865422</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>151.8610691867338</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>35.84393476802742</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465022</v>
+        <v>65.76608425465039</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>19.70191567112138</v>
+        <v>149.2995721001155</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.776449164531471</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164526184</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.9615342899037</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>98.20594949090948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29326,22 +29326,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.157194799753629e-12</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>-7.07318341828168e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>5.785973998768142e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>6.429578708524912e-13</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,22 +30508,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.73773680526618e-14</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6.73773680526618e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6.73773680526618e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>6.73773680526618e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.73773680526618e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.73773680526618e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,22 +30745,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>6.73773680526618e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.144060937939417e-12</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>6.73773680526618e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.73773680526618e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>6.73773680526618e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>6.73773680526618e-14</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75357772688556</v>
+        <v>3.753577726885555</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546675</v>
+        <v>38.4413278954667</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972536</v>
+        <v>318.5802175972532</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763194</v>
+        <v>477.4691627763188</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354934</v>
+        <v>592.3427171354928</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359945</v>
+        <v>659.0954050359937</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525082</v>
+        <v>669.7602577525074</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307898</v>
+        <v>632.435619230789</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983025</v>
+        <v>539.7691690983019</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542133</v>
+        <v>405.3441667542128</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864752</v>
+        <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140478</v>
+        <v>85.53465245140468</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508447</v>
+        <v>0.3002862181508443</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035142</v>
+        <v>19.39634732035139</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026276</v>
+        <v>69.14683309026267</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502171</v>
+        <v>324.3030514502167</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571284</v>
+        <v>436.0654741571279</v>
       </c>
       <c r="M9" t="n">
-        <v>508.867840461717</v>
+        <v>508.8678404617164</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152219</v>
+        <v>522.3360580152212</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519088</v>
+        <v>477.8354464519082</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947592</v>
+        <v>383.5050724947588</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463704</v>
+        <v>256.36298474637</v>
       </c>
       <c r="R9" t="n">
-        <v>124.693320920479</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366402</v>
+        <v>37.30405581366398</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133943</v>
+        <v>8.095024154133933</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752561</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415884</v>
+        <v>50.63422518415878</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772518</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490126</v>
+        <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023127</v>
+        <v>263.9316641023124</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462352</v>
+        <v>257.6559590462349</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046256</v>
+        <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708733</v>
+        <v>203.638975770873</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307421</v>
+        <v>75.70643221307411</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3427477865878</v>
+        <v>29.34274778658776</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942757</v>
+        <v>7.194100917942748</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650341</v>
+        <v>0.0918395861865033</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551114</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>490.507583235568</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>728.6709493241814</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,7 +32570,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32783,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>414.9172504145588</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33026,34 +33026,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550403</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33263,34 +33263,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153336</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,37 +33497,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860829</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639554</v>
       </c>
       <c r="Q36" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33980,28 +33980,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078244</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>396.9700886943673</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34448,34 +34448,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>430.4001870301153</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>121.2219182534624</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34787,7 +34787,7 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="K6" t="n">
         <v>75.4384048176305</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705673</v>
+        <v>137.5343130705669</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313389</v>
+        <v>257.3793117313382</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655062</v>
+        <v>356.5763021655055</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087218</v>
+        <v>428.749171808721</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559173</v>
+        <v>440.3471941559165</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091031</v>
+        <v>402.3374078091023</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343033</v>
+        <v>308.5361733430323</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797638</v>
+        <v>183.0384768797633</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234312</v>
+        <v>20.20013907234284</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127602</v>
+        <v>62.90656844127579</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758581</v>
+        <v>450.9268494884363</v>
       </c>
       <c r="L9" t="n">
-        <v>640.1406900856969</v>
+        <v>561.98584188675</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396987</v>
+        <v>366.7338065396981</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318886</v>
+        <v>390.9943459318879</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074643</v>
+        <v>335.2392020074637</v>
       </c>
       <c r="P9" t="n">
-        <v>411.3055671262274</v>
+        <v>249.5306650804285</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603489</v>
+        <v>116.3812106603485</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783585</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873325</v>
+        <v>25.68023017873311</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513691</v>
+        <v>173.3488267513689</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093287</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641533</v>
+        <v>303.515541064153</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254638</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.572108918665</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228595</v>
+        <v>54.82702814228578</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075244</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>351.9532034556938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>597.3292372408481</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>283.5755383312255</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>212.934053971707</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779320004</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>439.1903400640646</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962517</v>
       </c>
       <c r="Q36" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>471.500302824491</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>254.836054772349</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>291.8458072502411</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
